--- a/ReSTAPI/BNI CBS Rest API.xlsx
+++ b/ReSTAPI/BNI CBS Rest API.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4185AB10-1A32-482B-B9E5-B85C1F3800A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD000F-EF1E-47BF-9B56-01021A939E5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>CreateTapenasDepositAccount</t>
   </si>
@@ -107,12 +107,6 @@
     <t>069400.xml</t>
   </si>
   <si>
-    <t>032000.xml</t>
-  </si>
-  <si>
-    <t>032100.xml</t>
-  </si>
-  <si>
     <t>037440.xml</t>
   </si>
   <si>
@@ -125,21 +119,9 @@
     <t>037451.xml</t>
   </si>
   <si>
-    <t>067050.xml(With option 02,05,04,09)</t>
-  </si>
-  <si>
-    <t>067010.xml, 067101.xml, 067100.xml, 067108.xml</t>
-  </si>
-  <si>
     <t>069490.xml</t>
   </si>
   <si>
-    <t>069491.xml, 069492.xml</t>
-  </si>
-  <si>
-    <t>060583.xml(with option 01, 02, 03, 04)</t>
-  </si>
-  <si>
     <t>060584.xml, 060585.xml, 060586.xml, 060587.xml</t>
   </si>
   <si>
@@ -189,11 +171,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Duedate missing in the loanlist
-Option 08 to be used for nextpaymentdate. Response 10400.xml for loan and 400.xml</t>
   </si>
   <si>
     <t>To fetch the additional details of Loan accounts
@@ -266,12 +243,147 @@
   <si>
     <t>To inquire details of new Deposit Account to be opened before opening Term Deposit Account</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>032000.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+000400.xml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>032100.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+010400.xml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>067050.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(With option 02,05,04,09)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>067010.xml, 067101.xml, 067100.xml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 067108.xml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>069491.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 069492.xml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">060583.xml(with option 01, 02, 03, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 06)</t>
+    </r>
+  </si>
+  <si>
+    <t>To get the information detail, use 069400</t>
+  </si>
+  <si>
+    <t>https://github.com/ag2uki/BNI-TCS-BANCS/tree/master/ReSTAPI/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Duedate missing in the loanlist
+Option 08 to be used for nextpaymentdate. Response 10400.xml for loan and 400.xml 
+https://github.com/ag2uki/BNI-TCS-BANCS/tree/master/ReSTAPI/</t>
+  </si>
+  <si>
+    <t>Please see the explanation at github 
+https://github.com/ag2uki/BNI-TCS-BANCS/tree/master/ReSTAPI/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +440,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -367,11 +494,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,9 +524,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,8 +641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9119659" y="416984"/>
-          <a:ext cx="5486875" cy="3919129"/>
+          <a:off x="9279203" y="409840"/>
+          <a:ext cx="5501162" cy="3769111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2540,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31A936-F5C6-4001-9455-E7E19AE8D933}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2557,7 +2692,7 @@
     <col min="7" max="16384" width="23.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2700,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -2574,10 +2709,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2585,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
@@ -2593,9 +2728,11 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2603,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -2611,9 +2748,11 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2621,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
@@ -2629,9 +2768,11 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="F4" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2639,17 +2780,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2657,19 +2800,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2677,17 +2820,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2695,17 +2840,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2713,17 +2860,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2731,17 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="67.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2749,19 +2900,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2769,17 +2923,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2787,17 +2941,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2805,17 +2959,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2823,17 +2977,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2841,16 +2995,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
@@ -2861,10 +3015,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2877,13 +3031,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2895,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>24</v>
@@ -2906,8 +3060,17 @@
       <c r="F19" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{79FBCB4B-F805-4E26-B2A7-4CDFFE1B9984}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{F460D41D-FA4F-457B-980C-C51038979E60}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{2C971A67-9768-4112-AB94-7CA9C74414DB}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5BFD549C-CD64-47E2-A95A-26F6176D00EC}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{C6471BCD-2DF2-49F7-A96D-DD947B5EE5CA}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{ED230618-2D01-4C28-B1B5-251118E6017E}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{222D47E2-901F-4672-9986-E6EBAE8C5693}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2915,9 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E4152-3998-4793-B440-5454AADA64C4}">
   <dimension ref="A2:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="C163" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView topLeftCell="J2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2975,7 +3136,7 @@
     </row>
     <row r="69" spans="3:3" ht="21" x14ac:dyDescent="0.5">
       <c r="C69" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -2986,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
@@ -2997,12 +3158,12 @@
         <v>3</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C141" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -3031,17 +3192,17 @@
     </row>
     <row r="189" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C189" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C211" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C232" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">

--- a/ReSTAPI/BNI CBS Rest API.xlsx
+++ b/ReSTAPI/BNI CBS Rest API.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD000F-EF1E-47BF-9B56-01021A939E5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F949A-6CC1-4544-B96B-B6D1D9D641BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>CreateTapenasDepositAccount</t>
   </si>
@@ -377,6 +377,12 @@
   <si>
     <t>Please see the explanation at github 
 https://github.com/ag2uki/BNI-TCS-BANCS/tree/master/ReSTAPI/</t>
+  </si>
+  <si>
+    <t>Online transfer should invoked to Interbank Service, via Base24</t>
+  </si>
+  <si>
+    <t>type of beneficiary = tipeResidensiPenerima</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -529,6 +535,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2677,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31A936-F5C6-4001-9455-E7E19AE8D933}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2931,9 +2940,11 @@
       <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2943,13 +2954,15 @@
       <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -2985,7 +2998,9 @@
       <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3078,7 +3093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E4152-3998-4793-B440-5454AADA64C4}">
   <dimension ref="A2:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/ReSTAPI/BNI CBS Rest API.xlsx
+++ b/ReSTAPI/BNI CBS Rest API.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F949A-6CC1-4544-B96B-B6D1D9D641BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43640BBF-8548-4130-A6B4-3EAFC5412415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>CreateTapenasDepositAccount</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>055675.xml</t>
-  </si>
-  <si>
-    <t>000400.xml</t>
   </si>
   <si>
     <t>032070.xml</t>
@@ -384,12 +381,124 @@
   <si>
     <t>type of beneficiary = tipeResidensiPenerima</t>
   </si>
+  <si>
+    <t>--invalid core service--</t>
+  </si>
+  <si>
+    <t>CreateTopUpAccount</t>
+  </si>
+  <si>
+    <t>SOA Core Service Name</t>
+  </si>
+  <si>
+    <t>CreateDepositAccount</t>
+  </si>
+  <si>
+    <t>HistoricalTransactions</t>
+  </si>
+  <si>
+    <t>AccountShortInquiry 
+AccountShortDetails</t>
+  </si>
+  <si>
+    <t>DebitCardDetails</t>
+  </si>
+  <si>
+    <t>GetCardByAccount</t>
+  </si>
+  <si>
+    <t>CifDetails
+GetPersonalInfo</t>
+  </si>
+  <si>
+    <t>CustomerDetailV2</t>
+  </si>
+  <si>
+    <t>OpenAccountList</t>
+  </si>
+  <si>
+    <t>KliringOutwardV2</t>
+  </si>
+  <si>
+    <t>DepositTransfer</t>
+  </si>
+  <si>
+    <t>RtgsOutward</t>
+  </si>
+  <si>
+    <t>--no core service 000400--</t>
+  </si>
+  <si>
+    <t>TermDepositRateInquiry</t>
+  </si>
+  <si>
+    <t>--no core service 002071--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional premium (dropdown) 
+insurance clain payment (dropdown) 
+</t>
+  </si>
+  <si>
+    <t>Deposit: .xml
+Loan: .xml
+Tappenas: .xml 
+Deposito: .xml 
+Haji: .xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">000400.xml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>069400.xml</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan: .xml
+</t>
+  </si>
+  <si>
+    <t>Refer to 069400.xml at no #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please use 069491.xml and applied to any customer type
+</t>
+  </si>
+  <si>
+    <t>butuh xsd SOA, request &amp; response</t>
+  </si>
+  <si>
+    <t>Type of Beneficiary (dropdown)</t>
+  </si>
+  <si>
+    <t>Additional Premium 
+Term 
+Maturity Date (Due Date)</t>
+  </si>
+  <si>
+    <t>Detail informasi transcode 2071 &amp; responsenya</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +570,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -505,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +659,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2684,24 +2812,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31A936-F5C6-4001-9455-E7E19AE8D933}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="83" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="23.54296875" style="5"/>
+    <col min="2" max="3" width="36.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="23.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2709,19 +2837,22 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2729,19 +2860,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2749,19 +2886,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G3" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2769,19 +2909,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2789,19 +2932,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2809,19 +2958,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2829,19 +2984,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G7" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2849,19 +3007,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="G8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2869,19 +3030,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2889,19 +3053,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2909,22 +3079,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2932,39 +3108,48 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2972,17 +3157,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2990,39 +3178,54 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>65</v>
+      <c r="C16" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3030,33 +3233,42 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
+      <c r="C18" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3064,25 +3276,28 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{79FBCB4B-F805-4E26-B2A7-4CDFFE1B9984}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{F460D41D-FA4F-457B-980C-C51038979E60}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{2C971A67-9768-4112-AB94-7CA9C74414DB}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{5BFD549C-CD64-47E2-A95A-26F6176D00EC}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{C6471BCD-2DF2-49F7-A96D-DD947B5EE5CA}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{ED230618-2D01-4C28-B1B5-251118E6017E}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{222D47E2-901F-4672-9986-E6EBAE8C5693}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{79FBCB4B-F805-4E26-B2A7-4CDFFE1B9984}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F460D41D-FA4F-457B-980C-C51038979E60}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{2C971A67-9768-4112-AB94-7CA9C74414DB}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{5BFD549C-CD64-47E2-A95A-26F6176D00EC}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{C6471BCD-2DF2-49F7-A96D-DD947B5EE5CA}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{ED230618-2D01-4C28-B1B5-251118E6017E}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{222D47E2-901F-4672-9986-E6EBAE8C5693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -3093,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E4152-3998-4793-B440-5454AADA64C4}">
   <dimension ref="A2:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3153,7 +3368,7 @@
     </row>
     <row r="69" spans="3:3" ht="21" x14ac:dyDescent="0.5">
       <c r="C69" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -3164,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
@@ -3175,12 +3390,12 @@
         <v>3</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C141" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -3209,17 +3424,17 @@
     </row>
     <row r="189" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C189" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C211" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C232" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">

--- a/ReSTAPI/BNI CBS Rest API.xlsx
+++ b/ReSTAPI/BNI CBS Rest API.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43640BBF-8548-4130-A6B4-3EAFC5412415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328C50D-E9EF-48AA-9AF4-7DAFEC20E5BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>CreateTapenasDepositAccount</t>
   </si>
@@ -432,9 +432,6 @@
     <t>TermDepositRateInquiry</t>
   </si>
   <si>
-    <t>--no core service 002071--</t>
-  </si>
-  <si>
     <t xml:space="preserve">additional premium (dropdown) 
 insurance clain payment (dropdown) 
 </t>
@@ -492,6 +489,14 @@
   </si>
   <si>
     <t>Detail informasi transcode 2071 &amp; responsenya</t>
+  </si>
+  <si>
+    <t>xsd request 
+xsd response
+xml</t>
+  </si>
+  <si>
+    <t>StopRollover</t>
   </si>
 </sst>
 </file>
@@ -2812,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31A936-F5C6-4001-9455-E7E19AE8D933}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="83" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="83" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2829,7 +2834,7 @@
     <col min="8" max="16384" width="23.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2875,10 +2880,16 @@
         <v>75</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2947,10 +2958,10 @@
         <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2973,10 +2984,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3068,10 +3079,10 @@
         <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3097,10 +3108,10 @@
         <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3123,10 +3134,10 @@
         <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3149,7 +3160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3170,7 +3181,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3193,10 +3204,10 @@
         <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>37</v>
@@ -3219,10 +3230,10 @@
         <v>50</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.35">
@@ -3252,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>66</v>
@@ -3265,7 +3276,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.35">
